--- a/Application/Assests/MailingDetails.xlsx
+++ b/Application/Assests/MailingDetails.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\awpa\Application\Assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EFFAA4-2C75-4840-B578-6DA3D210088F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F792A7CD-917D-4E09-9F68-073F3EEA5488}"/>
   </bookViews>
@@ -416,7 +417,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,12 +484,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4E791BE5-8A22-4C79-B1A1-8F6A4D7868AD}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{7E3A31CC-D30C-4E6D-A588-F0182877B8E8}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{F013EE92-2B4C-4E5C-A5EC-C197AA255093}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{0780A375-6551-4C1E-B5DF-81DF70E29692}"/>
-    <hyperlink ref="B4:B5" r:id="rId5" display="ganesh.m2014@kgkite.ac.in" xr:uid="{ADAEC12C-B213-400B-8D2F-7421349BA083}"/>
-    <hyperlink ref="C4:C5" r:id="rId6" display="ganesh.m635@gmail.com" xr:uid="{D65664FB-C993-44DA-9A2E-8E1BC5E61FFC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F05AEBD6-C6A3-4F6E-BAC7-C877FBCF6084}"/>
+    <hyperlink ref="B3:B5" r:id="rId2" display="ganesh.m2014@kgkite.ac.in" xr:uid="{2015DBE2-63E9-4826-8321-93D29BCC7607}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C7DACB30-2D16-48F7-88E2-33D73D8486FD}"/>
+    <hyperlink ref="C3:C5" r:id="rId4" display="ganesh.m635@gmail.com" xr:uid="{2853ED2D-2A36-4C48-ACA5-B29206287984}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
